--- a/Species Domain-updated.xlsx
+++ b/Species Domain-updated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="140">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -166,12 +166,6 @@
     <t xml:space="preserve">inaturalist</t>
   </si>
   <si>
-    <t xml:space="preserve">Zygopetalum spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0026901-241107131044228</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orchis Italica</t>
   </si>
   <si>
@@ -430,16 +424,7 @@
     <t xml:space="preserve">Agave attenuata</t>
   </si>
   <si>
-    <t xml:space="preserve">rosa gallica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yaban gülü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hybrid tea rose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gül</t>
+    <t xml:space="preserve">rosa spp</t>
   </si>
   <si>
     <t xml:space="preserve">salvia rosmarinus</t>
@@ -880,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1136,14 +1121,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -1151,30 +1136,33 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>9</v>
@@ -1182,16 +1170,19 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -1199,18 +1190,12 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1219,12 +1204,12 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1233,13 +1218,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>9</v>
@@ -1247,27 +1229,36 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>9</v>
@@ -1275,18 +1266,12 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1295,40 +1280,40 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1337,13 +1322,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="C27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>9</v>
@@ -1351,10 +1339,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>84</v>
@@ -1367,42 +1352,39 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>9</v>
@@ -1410,10 +1392,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>9</v>
@@ -1421,15 +1409,12 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -1438,83 +1423,92 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C38" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="9" t="s">
-        <v>111</v>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>9</v>
@@ -1522,12 +1516,9 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -1541,19 +1532,22 @@
       <c r="D41" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="2" t="s">
-        <v>119</v>
+      <c r="B42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>9</v>
@@ -1567,7 +1561,10 @@
         <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1575,10 @@
         <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,7 +1589,10 @@
         <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,10 +1603,13 @@
         <v>129</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
         <v>130</v>
       </c>
@@ -1611,10 +1617,13 @@
         <v>131</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
         <v>132</v>
       </c>
@@ -1622,61 +1631,59 @@
         <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>120</v>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>139</v>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="10" t="s">
-        <v>141</v>
+      <c r="C53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
+        <v>139</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
